--- a/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2006.xlsx
+++ b/Step_1_Process_Yearbook_Data/02_Digitized_data/河南_2006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\统计年鉴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangj\Desktop\Agricultural_production\Step_1_Process_Yearbook_Data\02_Digitized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D950BB-D747-4662-A5C9-BD7817C0FE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C1615D-255F-483B-A70F-7C2369A3B03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H160"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4828,14 +4828,14 @@
         <v>99</v>
       </c>
       <c r="B102" s="35">
-        <v>3830</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="C102" s="12">
         <v>240516</v>
       </c>
       <c r="D102" s="43">
         <f t="shared" si="2"/>
-        <v>62.797911227154046</v>
+        <v>6279.7911227154054</v>
       </c>
       <c r="E102" s="13">
         <v>22.67</v>
